--- a/EDA/owtp bom rev1.0.0.xlsx
+++ b/EDA/owtp bom rev1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Documents\Repositories\out_water_turbidity\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FF551-C7F0-46EA-807A-C2C1C0FF747B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361C189-35BC-4BF7-94D3-789F4DC80D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>Part Number</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Voltage Regulator</t>
   </si>
   <si>
-    <t>Micro</t>
-  </si>
-  <si>
-    <t>Micro USB Connector</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -112,15 +106,6 @@
     <t>https://au.mouser.com/ProductDetail/TE-Connectivity/2337019-1?qs=sGAEpiMZZMuLQf%252BEuFsOrkd7M7rmHNHiTyct1cm10uWVyaBZJ%252BKFDA%3D%3D</t>
   </si>
   <si>
-    <t>https://au.element14.com/molex/105133-0001/usb-conn-2-0-micro-usb-type-b/dp/2751682?st=micro usb</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>105133-0001</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>0603</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>J9</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>ESD Protection Diodes</t>
   </si>
   <si>
-    <t>100 kΩ</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>C12</t>
   </si>
   <si>
-    <t>C2,C3,C5,C8,C11,C18,C19</t>
-  </si>
-  <si>
     <t>C6,C9</t>
   </si>
   <si>
@@ -319,18 +295,12 @@
     <t>https://www.digikey.com.au/en/products/detail/panasonic-electronic-components/ERJ-2GEJ103X/146735</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/en/products/detail/panasonic-electronic-components/ERJ-2RKF1003X/192081</t>
-  </si>
-  <si>
     <t>https://www.digikey.com.au/en/products/detail/yageo/RC0402JR-0739RL/726472</t>
   </si>
   <si>
     <t>https://www.digikey.com.au/en/products/detail/epcos-tdk-electronics/B82496C3100J000/697499</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/en/products/detail/molex/0475890001/1832253</t>
-  </si>
-  <si>
     <t>https://www.digikey.com.au/en/products/detail/molex/1042240820/7785572?s=N4IgTCBcDaIAQEYAMAWMYUFokA4xJAF0BfIA</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t>https://www.digikey.com.au/en/products/detail/harvatek-corporation/B1911USD-20D000114U1930/15519991</t>
   </si>
   <si>
-    <t>R2-R6, R8</t>
-  </si>
-  <si>
     <t>SIP32508DT-T1-GE3</t>
   </si>
   <si>
@@ -404,6 +371,30 @@
   </si>
   <si>
     <t>https://au.mouser.com/ProductDetail/Alps-Alpine/SKTHAHE010/?qs=T3oQrply3y8NYoSxPHM%252Buw==</t>
+  </si>
+  <si>
+    <t>OV7675</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>https://www.uctronics.com/1/9-ov7675-standalone-vga-coms-camera-module.html</t>
+  </si>
+  <si>
+    <t>C2,C3,C5,C8,C11,C13,C18,C19</t>
+  </si>
+  <si>
+    <t>12 MΩ</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>3.3 MΩ</t>
+  </si>
+  <si>
+    <t>R2, R4-R6, R8</t>
   </si>
 </sst>
 </file>
@@ -530,17 +521,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -819,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -844,42 +835,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>92</v>
+        <v>25</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -891,26 +882,26 @@
         <f t="shared" ref="I2:I10" si="0">H2*G2</f>
         <v>0.6</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>113</v>
+      <c r="J2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
-        <v>38</v>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -922,29 +913,29 @@
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>111</v>
+      <c r="J3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -956,27 +947,27 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
-        <v>107</v>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -988,58 +979,58 @@
         <f t="shared" si="0"/>
         <v>1.2E-2</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
-        <v>105</v>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>8</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
       </c>
       <c r="H6" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>0.182</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16" t="s">
-        <v>106</v>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>73</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1051,27 +1042,27 @@
         <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16" t="s">
-        <v>110</v>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="13" t="s">
-        <v>39</v>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1083,27 +1074,27 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>108</v>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1115,24 +1106,24 @@
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
-        <v>109</v>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5"/>
-      <c r="B10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>115</v>
+      <c r="B10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10">
         <v>1</v>
       </c>
@@ -1143,199 +1134,195 @@
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
-        <v>116</v>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
-        <v>1.38</v>
-      </c>
-      <c r="I11" s="3">
-        <f>G11*H11</f>
-        <v>1.38</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6">
+        <f>H11*G11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>124</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6">
-        <f>H12*G12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="H12" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="I12" s="3">
+        <f>G12*H12</f>
+        <v>3.59</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>3.59</v>
-      </c>
-      <c r="I13" s="3">
-        <f>G13*H13</f>
-        <v>3.59</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>104</v>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I13" s="6">
+        <f>H13*G13</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="I14" s="6">
-        <f>H14*G14</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>97</v>
+        <v>2.34</v>
+      </c>
+      <c r="I14" s="3">
+        <f>G14*H14</f>
+        <v>2.34</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>2.34</v>
-      </c>
-      <c r="I15" s="3">
-        <f>G15*H15</f>
-        <v>2.34</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>103</v>
+        <v>0.63</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" ref="I15:I27" si="1">H15*G15</f>
+        <v>0.63</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0.63</v>
+        <v>0.02</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" ref="I16:I26" si="1">H16*G16</f>
-        <v>0.63</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>101</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1344,60 +1331,58 @@
         <v>0.02</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I17" si="2">H17*G17</f>
         <v>0.02</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>117</v>
+        <v>32</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="s">
-        <v>98</v>
+        <v>0.09</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1409,20 +1394,20 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="s">
-        <v>100</v>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>126</v>
+        <v>114</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E20" s="5"/>
       <c r="G20">
@@ -1435,27 +1420,27 @@
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="16"/>
+      <c r="J20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>80</v>
+      <c r="A21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="13" t="s">
-        <v>81</v>
+      <c r="F21" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1467,22 +1452,22 @@
         <f t="shared" si="1"/>
         <v>4.88</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>93</v>
+      <c r="J21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>82</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1497,56 +1482,56 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="J22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>90</v>
+      <c r="J22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>33.799999999999997</v>
+        <v>44</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E24" s="5"/>
       <c r="G24">
@@ -1559,25 +1544,25 @@
         <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-      <c r="J24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>95</v>
+      <c r="J24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25">
@@ -1590,25 +1575,25 @@
         <f t="shared" si="1"/>
         <v>0.47</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>121</v>
+      <c r="A26" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1621,7 +1606,28 @@
         <v>0.86</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>2.99</v>
+      </c>
+      <c r="J27" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1629,8 +1635,8 @@
     <sortCondition ref="C2:C25"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="J15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="J2" r:id="rId3" xr:uid="{DB12BA53-3836-467C-89FC-96EDD0E12E79}"/>
     <hyperlink ref="J20" r:id="rId4" xr:uid="{064D833B-ECAA-44A4-A9FD-4E5B23246C16}"/>
   </hyperlinks>

--- a/EDA/owtp bom rev1.0.0.xlsx
+++ b/EDA/owtp bom rev1.0.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Documents\Repositories\out_water_turbidity\EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361C189-35BC-4BF7-94D3-789F4DC80D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9CB1BE-4757-4E9C-B0A4-BE78EDE9EF83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,21 +343,12 @@
     <t>https://www.digikey.com.au/en/products/detail/harvatek-corporation/B1911USD-20D000114U1930/15519991</t>
   </si>
   <si>
-    <t>SIP32508DT-T1-GE3</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
     <t>Power Switch</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/en/products/detail/vishay-siliconix/SIP32508DT-T1-GE3/4496333?s=N4IgTCBcDaIMoEkAKBmMBWADADhAXQF8g</t>
-  </si>
-  <si>
     <t>S2B-PH-SM4-TB(LF)(SN)</t>
   </si>
   <si>
@@ -395,6 +386,15 @@
   </si>
   <si>
     <t>R2, R4-R6, R8</t>
+  </si>
+  <si>
+    <t>MIC94093YC6</t>
+  </si>
+  <si>
+    <t>SC-70-6</t>
+  </si>
+  <si>
+    <t>https://au.mouser.com/ProductDetail/Microchip-Technology/MIC94093YC6-TR?qs=Y3Q3JoKAO1Sx33RwJzV5Yg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -404,12 +404,19 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,33 +511,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -813,7 +821,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -992,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1141,13 +1149,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1293,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1316,13 +1324,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1345,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -1401,10 +1409,10 @@
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>44</v>
@@ -1421,7 +1429,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K20" s="15"/>
     </row>
@@ -1583,17 +1591,17 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1605,16 +1613,16 @@
         <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-      <c r="K26" t="s">
-        <v>111</v>
+      <c r="J26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1627,7 +1635,7 @@
         <v>2.99</v>
       </c>
       <c r="J27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
